--- a/biology/Botanique/Rheubarbariboletus_persicolor/Rheubarbariboletus_persicolor.xlsx
+++ b/biology/Botanique/Rheubarbariboletus_persicolor/Rheubarbariboletus_persicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet couleur de pêche
 Rheubarbariboletus persicolor, le Bolet couleur de pêche, anciennement Xerocomus persicolor, est une espèce de champignon (Fungi) basidiomycète du genre Rheubarbariboletus dans la famille des Boletaceae. Il est caractérisé par sa chair plus au moins bleuissante au niveau du chapeau, son habitat typiquement méditerranéen et la base de son pied restant jaune safran vif en séchant.
@@ -512,16 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rheubarbariboletus persicolor (H. Engel, Klofac, H. Grünert &amp; R. Grünert) Vizzini, Simonini &amp; Gelardi, 2015[1].
-L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus persicolor H. Engel, Klofac, H. Grünert &amp; R. Grünert, 1996[2].
-Synonymes
-Rheubarbariboletus persicolor a pour synonymes[1] :
-Boletus persicolor (H. Engel, Klofac, H. Grünert &amp; R. Grünert) Assyov, 2005
-Xerocomus persicolor H. Engel, Klofac, H. Grünert &amp; R. Grünert, 1996
-Étymologie
-L'épithète spécifique persicolor "pêche" fait référence à la couleur de son chapeau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rheubarbariboletus persicolor (H. Engel, Klofac, H. Grünert &amp; R. Grünert) Vizzini, Simonini &amp; Gelardi, 2015.
+L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus persicolor H. Engel, Klofac, H. Grünert &amp; R. Grünert, 1996.
 </t>
         </is>
       </c>
@@ -547,19 +555,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Rheubarbariboletus persicolor, le Bolet couleur de pêche, sont les suivantes :
-Son chapeau mesure jusqu'à 5 cm, il est de couleur abricot à pêche, exceptionnellement orange jaunâtre ou jaune, se décolorant avec l'âge pour devenir ochracé avec une teinte rosâtre, sec, velouté et parfois craquelé[3].
-L'hyménophore présente des tubes jaune citron, bleuissants en cas de blessure. Les pores sont concolores aux tubes, bleuissant lorsqu'ils sont meurtris.
-Son stipe est cylindrique ou fusiforme, souvent incurvé à la base, jaune pâle à jaune, la moitié inférieure devenant progressivement orange à orange rougeâtre, la surface du stipe bleuissante[3].
-La chair est jaunâtre dans le chapeau, jaune dans le stipe, jaune orangé à abricot dans la base du stipe (cette couleur est persistante et demeure après le séchage), bleuissant surtout dans le chapeau lorsqu'il est exposé à l'air[3]. Sa saveur est douce[4].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 15 μm x 4.5 à 5.5 μm.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus persicolor a pour synonymes :
+Boletus persicolor (H. Engel, Klofac, H. Grünert &amp; R. Grünert) Assyov, 2005
+Xerocomus persicolor H. Engel, Klofac, H. Grünert &amp; R. Grünert, 1996</t>
         </is>
       </c>
     </row>
@@ -584,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, venant dans les forêts thermophiles de feuillus, sous chênes (Quercus) et hêtres (Fagus)[3], en périphérie méditerranéenne sur sol calcaire[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique persicolor "pêche" fait référence à la couleur de son chapeau.
 </t>
         </is>
       </c>
@@ -615,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les Xerocomus au sens large, le Bolet couleur de pêche est une espèce d'intérêt culinaire donné comme moyen de par son faible goût et sa petite taille. Elle est comestible après cuisson, de préférence en retirant le pied et en privilégiant les jeunes spécimens dont les tubes ne sont pas très développés[5].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Rheubarbariboletus persicolor, le Bolet couleur de pêche, sont les suivantes :
+Son chapeau mesure jusqu'à 5 cm, il est de couleur abricot à pêche, exceptionnellement orange jaunâtre ou jaune, se décolorant avec l'âge pour devenir ochracé avec une teinte rosâtre, sec, velouté et parfois craquelé.
+L'hyménophore présente des tubes jaune citron, bleuissants en cas de blessure. Les pores sont concolores aux tubes, bleuissant lorsqu'ils sont meurtris.
+Son stipe est cylindrique ou fusiforme, souvent incurvé à la base, jaune pâle à jaune, la moitié inférieure devenant progressivement orange à orange rougeâtre, la surface du stipe bleuissante.
+La chair est jaunâtre dans le chapeau, jaune dans le stipe, jaune orangé à abricot dans la base du stipe (cette couleur est persistante et demeure après le séchage), bleuissant surtout dans le chapeau lorsqu'il est exposé à l'air. Sa saveur est douce.
 </t>
         </is>
       </c>
@@ -646,10 +667,115 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 15 μm x 4.5 à 5.5 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, venant dans les forêts thermophiles de feuillus, sous chênes (Quercus) et hêtres (Fagus), en périphérie méditerranéenne sur sol calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les Xerocomus au sens large, le Bolet couleur de pêche est une espèce d'intérêt culinaire donné comme moyen de par son faible goût et sa petite taille. Elle est comestible après cuisson, de préférence en retirant le pied et en privilégiant les jeunes spécimens dont les tubes ne sont pas très développés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rheubarbariboletus_persicolor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit être comparé avec le Bolet abricot (Rheubarbariboletus armeniacus), plus commun, généralement moins robuste, moins bleuissant, moins méditerranéen et à la base du stipe ne restant pas jaune safran vif en séchant.
 </t>
